--- a/data/option/MSFT_2021-06-16_call_revised.xlsx
+++ b/data/option/MSFT_2021-06-16_call_revised.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:E180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,25 +436,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
           <t>strike</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Maturity</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>lastPrice</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>volume</t>
         </is>
@@ -465,18 +460,15 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="C2" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>194.34</v>
       </c>
       <c r="E2" t="n">
-        <v>194.34</v>
-      </c>
-      <c r="F2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -485,18 +477,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="C3" t="n">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>128.5</v>
       </c>
       <c r="E3" t="n">
-        <v>128.5</v>
-      </c>
-      <c r="F3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -505,18 +494,15 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="C4" t="n">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>123.8</v>
       </c>
       <c r="E4" t="n">
-        <v>123.8</v>
-      </c>
-      <c r="F4" t="n">
         <v>4</v>
       </c>
     </row>
@@ -525,18 +511,15 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="C5" t="n">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>119.53</v>
       </c>
       <c r="E5" t="n">
-        <v>119.53</v>
-      </c>
-      <c r="F5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -545,18 +528,15 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>160</v>
       </c>
       <c r="C6" t="n">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>99.81999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>99.81999999999999</v>
-      </c>
-      <c r="F6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -565,18 +545,15 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>24</v>
+        <v>185</v>
       </c>
       <c r="C7" t="n">
-        <v>185</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>74.72</v>
       </c>
       <c r="E7" t="n">
-        <v>74.72</v>
-      </c>
-      <c r="F7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -585,18 +562,15 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28</v>
+        <v>205</v>
       </c>
       <c r="C8" t="n">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>53.5</v>
       </c>
       <c r="E8" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="F8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -605,18 +579,15 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>38</v>
+        <v>237.5</v>
       </c>
       <c r="C9" t="n">
-        <v>237.5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>21.46</v>
       </c>
       <c r="E9" t="n">
-        <v>21.46</v>
-      </c>
-      <c r="F9" t="n">
         <v>15</v>
       </c>
     </row>
@@ -625,18 +596,15 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>58</v>
+        <v>300</v>
       </c>
       <c r="C10" t="n">
-        <v>300</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F10" t="n">
         <v>5</v>
       </c>
     </row>
@@ -645,18 +613,15 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="C11" t="n">
-        <v>320</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>0.01</v>
       </c>
       <c r="E11" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -665,18 +630,15 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84</v>
+        <v>210</v>
       </c>
       <c r="C12" t="n">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="E12" t="n">
-        <v>48</v>
-      </c>
-      <c r="F12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -685,18 +647,15 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>98</v>
+        <v>247.5</v>
       </c>
       <c r="C13" t="n">
-        <v>247.5</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>9</v>
+        <v>12.55</v>
       </c>
       <c r="E13" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="F13" t="n">
         <v>111</v>
       </c>
     </row>
@@ -705,18 +664,15 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>113</v>
+        <v>285</v>
       </c>
       <c r="C14" t="n">
-        <v>285</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>9</v>
+        <v>0.05</v>
       </c>
       <c r="E14" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="F14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -725,18 +681,15 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>115</v>
+        <v>295</v>
       </c>
       <c r="C15" t="n">
-        <v>295</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>9</v>
+        <v>0.03</v>
       </c>
       <c r="E15" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F15" t="n">
         <v>33</v>
       </c>
     </row>
@@ -745,18 +698,15 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>117</v>
+        <v>305</v>
       </c>
       <c r="C16" t="n">
-        <v>305</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
+        <v>0.02</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F16" t="n">
         <v>151</v>
       </c>
     </row>
@@ -765,18 +715,15 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>123</v>
+        <v>200</v>
       </c>
       <c r="C17" t="n">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>58.45</v>
       </c>
       <c r="E17" t="n">
-        <v>58.45</v>
-      </c>
-      <c r="F17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -785,18 +732,15 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>124</v>
+        <v>205</v>
       </c>
       <c r="C18" t="n">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>16</v>
+        <v>54.5</v>
       </c>
       <c r="E18" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="F18" t="n">
         <v>4</v>
       </c>
     </row>
@@ -805,18 +749,15 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>132</v>
+        <v>237.5</v>
       </c>
       <c r="C19" t="n">
-        <v>237.5</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
-        <v>16</v>
+        <v>21.53</v>
       </c>
       <c r="E19" t="n">
-        <v>21.53</v>
-      </c>
-      <c r="F19" t="n">
         <v>57</v>
       </c>
     </row>
@@ -825,18 +766,15 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>133</v>
+        <v>240</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="D20" t="n">
-        <v>16</v>
+        <v>19.42</v>
       </c>
       <c r="E20" t="n">
-        <v>19.42</v>
-      </c>
-      <c r="F20" t="n">
         <v>3</v>
       </c>
     </row>
@@ -845,18 +783,15 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>151</v>
+        <v>285</v>
       </c>
       <c r="C21" t="n">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="D21" t="n">
-        <v>16</v>
+        <v>0.12</v>
       </c>
       <c r="E21" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="F21" t="n">
         <v>6</v>
       </c>
     </row>
@@ -865,18 +800,15 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>153</v>
+        <v>295</v>
       </c>
       <c r="C22" t="n">
-        <v>295</v>
+        <v>16</v>
       </c>
       <c r="D22" t="n">
-        <v>16</v>
+        <v>0.08</v>
       </c>
       <c r="E22" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="F22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -885,36 +817,30 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="C23" t="n">
-        <v>215</v>
+        <v>23</v>
       </c>
       <c r="D23" t="n">
-        <v>23</v>
-      </c>
-      <c r="E23" t="n">
         <v>44.41</v>
       </c>
-      <c r="F23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>169</v>
+        <v>247.5</v>
       </c>
       <c r="C24" t="n">
-        <v>247.5</v>
+        <v>23</v>
       </c>
       <c r="D24" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E24" t="n">
-        <v>13</v>
-      </c>
-      <c r="F24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -923,18 +849,15 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>181</v>
+        <v>277.5</v>
       </c>
       <c r="C25" t="n">
-        <v>277.5</v>
+        <v>23</v>
       </c>
       <c r="D25" t="n">
-        <v>23</v>
+        <v>0.34</v>
       </c>
       <c r="E25" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="F25" t="n">
         <v>2</v>
       </c>
     </row>
@@ -943,18 +866,15 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="C26" t="n">
-        <v>300</v>
+        <v>23</v>
       </c>
       <c r="D26" t="n">
-        <v>23</v>
+        <v>0.1</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F26" t="n">
         <v>5</v>
       </c>
     </row>
@@ -963,18 +883,15 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C27" t="n">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>30</v>
+        <v>49.69</v>
       </c>
       <c r="E27" t="n">
-        <v>49.69</v>
-      </c>
-      <c r="F27" t="n">
         <v>22</v>
       </c>
     </row>
@@ -983,18 +900,15 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>234</v>
+        <v>340</v>
       </c>
       <c r="C28" t="n">
-        <v>340</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>0.03</v>
       </c>
       <c r="E28" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="F28" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1003,18 +917,15 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="C29" t="n">
-        <v>355</v>
+        <v>30</v>
       </c>
       <c r="D29" t="n">
-        <v>30</v>
+        <v>0.01</v>
       </c>
       <c r="E29" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="F29" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1023,18 +934,15 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>244</v>
+        <v>390</v>
       </c>
       <c r="C30" t="n">
-        <v>390</v>
+        <v>30</v>
       </c>
       <c r="D30" t="n">
-        <v>30</v>
+        <v>0.02</v>
       </c>
       <c r="E30" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F30" t="n">
         <v>30</v>
       </c>
     </row>
@@ -1043,18 +951,15 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C31" t="n">
-        <v>235</v>
+        <v>37</v>
       </c>
       <c r="D31" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E31" t="n">
-        <v>26</v>
-      </c>
-      <c r="F31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1063,18 +968,15 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C32" t="n">
-        <v>240</v>
+        <v>37</v>
       </c>
       <c r="D32" t="n">
-        <v>37</v>
+        <v>21.27</v>
       </c>
       <c r="E32" t="n">
-        <v>21.27</v>
-      </c>
-      <c r="F32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1083,18 +985,15 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>256</v>
+        <v>247.5</v>
       </c>
       <c r="C33" t="n">
-        <v>247.5</v>
+        <v>37</v>
       </c>
       <c r="D33" t="n">
-        <v>37</v>
+        <v>13.95</v>
       </c>
       <c r="E33" t="n">
-        <v>13.95</v>
-      </c>
-      <c r="F33" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1103,18 +1002,15 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>258</v>
+        <v>252.5</v>
       </c>
       <c r="C34" t="n">
-        <v>252.5</v>
+        <v>37</v>
       </c>
       <c r="D34" t="n">
-        <v>37</v>
+        <v>11.78</v>
       </c>
       <c r="E34" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="F34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1123,18 +1019,15 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>268</v>
+        <v>277.5</v>
       </c>
       <c r="C35" t="n">
-        <v>277.5</v>
+        <v>37</v>
       </c>
       <c r="D35" t="n">
-        <v>37</v>
+        <v>1.25</v>
       </c>
       <c r="E35" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="F35" t="n">
         <v>98</v>
       </c>
     </row>
@@ -1143,18 +1036,15 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="C36" t="n">
-        <v>285</v>
+        <v>37</v>
       </c>
       <c r="D36" t="n">
-        <v>37</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1163,18 +1053,15 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="C37" t="n">
-        <v>290</v>
+        <v>37</v>
       </c>
       <c r="D37" t="n">
-        <v>37</v>
+        <v>0.45</v>
       </c>
       <c r="E37" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="F37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1070,15 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>275</v>
+        <v>225</v>
       </c>
       <c r="C38" t="n">
-        <v>225</v>
+        <v>44</v>
       </c>
       <c r="D38" t="n">
-        <v>44</v>
+        <v>34.75</v>
       </c>
       <c r="E38" t="n">
-        <v>34.75</v>
-      </c>
-      <c r="F38" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1203,18 +1087,15 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>280</v>
+        <v>252.5</v>
       </c>
       <c r="C39" t="n">
-        <v>252.5</v>
+        <v>44</v>
       </c>
       <c r="D39" t="n">
-        <v>44</v>
+        <v>11.85</v>
       </c>
       <c r="E39" t="n">
-        <v>11.85</v>
-      </c>
-      <c r="F39" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1223,18 +1104,15 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>281</v>
+        <v>255</v>
       </c>
       <c r="C40" t="n">
-        <v>255</v>
+        <v>44</v>
       </c>
       <c r="D40" t="n">
-        <v>44</v>
+        <v>10.35</v>
       </c>
       <c r="E40" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="F40" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1243,18 +1121,15 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>286</v>
+        <v>267.5</v>
       </c>
       <c r="C41" t="n">
-        <v>267.5</v>
+        <v>44</v>
       </c>
       <c r="D41" t="n">
-        <v>44</v>
+        <v>4.35</v>
       </c>
       <c r="E41" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="F41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1263,18 +1138,15 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>290</v>
+        <v>277.5</v>
       </c>
       <c r="C42" t="n">
-        <v>277.5</v>
+        <v>44</v>
       </c>
       <c r="D42" t="n">
-        <v>44</v>
+        <v>1.84</v>
       </c>
       <c r="E42" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="F42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1283,18 +1155,15 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C43" t="n">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="D43" t="n">
-        <v>44</v>
+        <v>0.48</v>
       </c>
       <c r="E43" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="F43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1303,18 +1172,15 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="C44" t="n">
-        <v>305</v>
+        <v>44</v>
       </c>
       <c r="D44" t="n">
-        <v>44</v>
+        <v>0.18</v>
       </c>
       <c r="E44" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="F44" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1323,18 +1189,15 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>313</v>
+        <v>205</v>
       </c>
       <c r="C45" t="n">
-        <v>205</v>
+        <v>65</v>
       </c>
       <c r="D45" t="n">
-        <v>65</v>
+        <v>54.28</v>
       </c>
       <c r="E45" t="n">
-        <v>54.28</v>
-      </c>
-      <c r="F45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1343,18 +1206,15 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="C46" t="n">
-        <v>295</v>
+        <v>65</v>
       </c>
       <c r="D46" t="n">
-        <v>65</v>
+        <v>0.7</v>
       </c>
       <c r="E46" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="F46" t="n">
         <v>105</v>
       </c>
     </row>
@@ -1363,18 +1223,15 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>332</v>
+        <v>300</v>
       </c>
       <c r="C47" t="n">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="D47" t="n">
-        <v>65</v>
+        <v>0.5</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F47" t="n">
         <v>103</v>
       </c>
     </row>
@@ -1383,18 +1240,15 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="C48" t="n">
-        <v>305</v>
+        <v>65</v>
       </c>
       <c r="D48" t="n">
-        <v>65</v>
+        <v>0.35</v>
       </c>
       <c r="E48" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F48" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1403,18 +1257,15 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="C49" t="n">
-        <v>310</v>
+        <v>65</v>
       </c>
       <c r="D49" t="n">
-        <v>65</v>
+        <v>0.28</v>
       </c>
       <c r="E49" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="F49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1423,18 +1274,15 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="C50" t="n">
-        <v>315</v>
+        <v>65</v>
       </c>
       <c r="D50" t="n">
-        <v>65</v>
+        <v>0.24</v>
       </c>
       <c r="E50" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="F50" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1443,18 +1291,15 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>356</v>
+        <v>150</v>
       </c>
       <c r="C51" t="n">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="D51" t="n">
-        <v>93</v>
+        <v>108.35</v>
       </c>
       <c r="E51" t="n">
-        <v>108.35</v>
-      </c>
-      <c r="F51" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1463,18 +1308,15 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>357</v>
+        <v>155</v>
       </c>
       <c r="C52" t="n">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="D52" t="n">
-        <v>93</v>
+        <v>103.65</v>
       </c>
       <c r="E52" t="n">
-        <v>103.65</v>
-      </c>
-      <c r="F52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1483,18 +1325,15 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>358</v>
+        <v>160</v>
       </c>
       <c r="C53" t="n">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="D53" t="n">
-        <v>93</v>
+        <v>98.84999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>98.84999999999999</v>
-      </c>
-      <c r="F53" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1503,18 +1342,15 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>366</v>
+        <v>200</v>
       </c>
       <c r="C54" t="n">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="D54" t="n">
-        <v>93</v>
+        <v>60.15</v>
       </c>
       <c r="E54" t="n">
-        <v>60.15</v>
-      </c>
-      <c r="F54" t="n">
         <v>36</v>
       </c>
     </row>
@@ -1523,18 +1359,15 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>367</v>
+        <v>205</v>
       </c>
       <c r="C55" t="n">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="D55" t="n">
-        <v>93</v>
+        <v>54.5</v>
       </c>
       <c r="E55" t="n">
-        <v>54.5</v>
-      </c>
-      <c r="F55" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1543,18 +1376,15 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>369</v>
+        <v>215</v>
       </c>
       <c r="C56" t="n">
-        <v>215</v>
+        <v>93</v>
       </c>
       <c r="D56" t="n">
-        <v>93</v>
+        <v>44.9</v>
       </c>
       <c r="E56" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="F56" t="n">
         <v>12</v>
       </c>
     </row>
@@ -1563,18 +1393,15 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>371</v>
+        <v>225</v>
       </c>
       <c r="C57" t="n">
-        <v>225</v>
+        <v>93</v>
       </c>
       <c r="D57" t="n">
-        <v>93</v>
+        <v>36.15</v>
       </c>
       <c r="E57" t="n">
-        <v>36.15</v>
-      </c>
-      <c r="F57" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1583,18 +1410,15 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>372</v>
+        <v>230</v>
       </c>
       <c r="C58" t="n">
-        <v>230</v>
+        <v>93</v>
       </c>
       <c r="D58" t="n">
-        <v>93</v>
+        <v>31.77</v>
       </c>
       <c r="E58" t="n">
-        <v>31.77</v>
-      </c>
-      <c r="F58" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1603,18 +1427,15 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>374</v>
+        <v>240</v>
       </c>
       <c r="C59" t="n">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="D59" t="n">
-        <v>93</v>
+        <v>24.41</v>
       </c>
       <c r="E59" t="n">
-        <v>24.41</v>
-      </c>
-      <c r="F59" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1623,18 +1444,15 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>387</v>
+        <v>305</v>
       </c>
       <c r="C60" t="n">
-        <v>305</v>
+        <v>93</v>
       </c>
       <c r="D60" t="n">
-        <v>93</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F60" t="n">
         <v>114</v>
       </c>
     </row>
@@ -1643,18 +1461,15 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>388</v>
+        <v>310</v>
       </c>
       <c r="C61" t="n">
-        <v>310</v>
+        <v>93</v>
       </c>
       <c r="D61" t="n">
-        <v>93</v>
+        <v>0.58</v>
       </c>
       <c r="E61" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="F61" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1663,18 +1478,15 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>389</v>
+        <v>315</v>
       </c>
       <c r="C62" t="n">
-        <v>315</v>
+        <v>93</v>
       </c>
       <c r="D62" t="n">
-        <v>93</v>
+        <v>0.46</v>
       </c>
       <c r="E62" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="F62" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1683,18 +1495,15 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>391</v>
+        <v>325</v>
       </c>
       <c r="C63" t="n">
-        <v>325</v>
+        <v>93</v>
       </c>
       <c r="D63" t="n">
-        <v>93</v>
+        <v>0.31</v>
       </c>
       <c r="E63" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="F63" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1703,18 +1512,15 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>393</v>
+        <v>335</v>
       </c>
       <c r="C64" t="n">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="D64" t="n">
-        <v>93</v>
+        <v>0.24</v>
       </c>
       <c r="E64" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="F64" t="n">
         <v>38</v>
       </c>
     </row>
@@ -1723,18 +1529,15 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="C65" t="n">
-        <v>390</v>
+        <v>93</v>
       </c>
       <c r="D65" t="n">
-        <v>93</v>
+        <v>0.06</v>
       </c>
       <c r="E65" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="F65" t="n">
         <v>255</v>
       </c>
     </row>
@@ -1743,18 +1546,15 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>422</v>
+        <v>215</v>
       </c>
       <c r="C66" t="n">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="D66" t="n">
-        <v>121</v>
+        <v>46.71</v>
       </c>
       <c r="E66" t="n">
-        <v>46.71</v>
-      </c>
-      <c r="F66" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1763,18 +1563,15 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>426</v>
+        <v>235</v>
       </c>
       <c r="C67" t="n">
-        <v>235</v>
+        <v>121</v>
       </c>
       <c r="D67" t="n">
-        <v>121</v>
+        <v>29.6</v>
       </c>
       <c r="E67" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="F67" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1783,18 +1580,15 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>436</v>
+        <v>285</v>
       </c>
       <c r="C68" t="n">
-        <v>285</v>
+        <v>121</v>
       </c>
       <c r="D68" t="n">
-        <v>121</v>
+        <v>3.7</v>
       </c>
       <c r="E68" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="F68" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1803,18 +1597,15 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>445</v>
+        <v>330</v>
       </c>
       <c r="C69" t="n">
-        <v>330</v>
+        <v>121</v>
       </c>
       <c r="D69" t="n">
-        <v>121</v>
+        <v>0.44</v>
       </c>
       <c r="E69" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F69" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1823,18 +1614,15 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>449</v>
+        <v>350</v>
       </c>
       <c r="C70" t="n">
-        <v>350</v>
+        <v>121</v>
       </c>
       <c r="D70" t="n">
-        <v>121</v>
+        <v>0.26</v>
       </c>
       <c r="E70" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="F70" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1843,18 +1631,15 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>452</v>
+        <v>380</v>
       </c>
       <c r="C71" t="n">
-        <v>380</v>
+        <v>121</v>
       </c>
       <c r="D71" t="n">
-        <v>121</v>
+        <v>0.15</v>
       </c>
       <c r="E71" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="F71" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1863,18 +1648,15 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>453</v>
+        <v>390</v>
       </c>
       <c r="C72" t="n">
-        <v>390</v>
+        <v>121</v>
       </c>
       <c r="D72" t="n">
-        <v>121</v>
+        <v>0.14</v>
       </c>
       <c r="E72" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="F72" t="n">
         <v>121</v>
       </c>
     </row>
@@ -1883,18 +1665,15 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>472</v>
+        <v>220</v>
       </c>
       <c r="C73" t="n">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="D73" t="n">
-        <v>156</v>
+        <v>42.65</v>
       </c>
       <c r="E73" t="n">
-        <v>42.65</v>
-      </c>
-      <c r="F73" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1903,18 +1682,15 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>479</v>
+        <v>255</v>
       </c>
       <c r="C74" t="n">
-        <v>255</v>
+        <v>156</v>
       </c>
       <c r="D74" t="n">
-        <v>156</v>
+        <v>17.05</v>
       </c>
       <c r="E74" t="n">
-        <v>17.05</v>
-      </c>
-      <c r="F74" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1923,18 +1699,15 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>485</v>
+        <v>285</v>
       </c>
       <c r="C75" t="n">
-        <v>285</v>
+        <v>156</v>
       </c>
       <c r="D75" t="n">
-        <v>156</v>
+        <v>6.2</v>
       </c>
       <c r="E75" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="F75" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1943,18 +1716,15 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>486</v>
+        <v>290</v>
       </c>
       <c r="C76" t="n">
-        <v>290</v>
+        <v>156</v>
       </c>
       <c r="D76" t="n">
-        <v>156</v>
+        <v>4.8</v>
       </c>
       <c r="E76" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F76" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1963,18 +1733,15 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>487</v>
+        <v>295</v>
       </c>
       <c r="C77" t="n">
-        <v>295</v>
+        <v>156</v>
       </c>
       <c r="D77" t="n">
-        <v>156</v>
+        <v>3.8</v>
       </c>
       <c r="E77" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="F77" t="n">
         <v>11</v>
       </c>
     </row>
@@ -1983,18 +1750,15 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>493</v>
+        <v>325</v>
       </c>
       <c r="C78" t="n">
-        <v>325</v>
+        <v>156</v>
       </c>
       <c r="D78" t="n">
-        <v>156</v>
+        <v>1.06</v>
       </c>
       <c r="E78" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="F78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2003,18 +1767,15 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>494</v>
+        <v>330</v>
       </c>
       <c r="C79" t="n">
-        <v>330</v>
+        <v>156</v>
       </c>
       <c r="D79" t="n">
-        <v>156</v>
+        <v>0.88</v>
       </c>
       <c r="E79" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="F79" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2023,18 +1784,15 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>509</v>
+        <v>115</v>
       </c>
       <c r="C80" t="n">
-        <v>115</v>
+        <v>219</v>
       </c>
       <c r="D80" t="n">
-        <v>219</v>
+        <v>143.59</v>
       </c>
       <c r="E80" t="n">
-        <v>143.59</v>
-      </c>
-      <c r="F80" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2043,18 +1801,15 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>510</v>
+        <v>120</v>
       </c>
       <c r="C81" t="n">
-        <v>120</v>
+        <v>219</v>
       </c>
       <c r="D81" t="n">
-        <v>219</v>
+        <v>138.67</v>
       </c>
       <c r="E81" t="n">
-        <v>138.67</v>
-      </c>
-      <c r="F81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2063,18 +1818,15 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>512</v>
+        <v>130</v>
       </c>
       <c r="C82" t="n">
-        <v>130</v>
+        <v>219</v>
       </c>
       <c r="D82" t="n">
-        <v>219</v>
+        <v>129.2</v>
       </c>
       <c r="E82" t="n">
-        <v>129.2</v>
-      </c>
-      <c r="F82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2083,18 +1835,15 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>513</v>
+        <v>135</v>
       </c>
       <c r="C83" t="n">
-        <v>135</v>
+        <v>219</v>
       </c>
       <c r="D83" t="n">
-        <v>219</v>
+        <v>125</v>
       </c>
       <c r="E83" t="n">
-        <v>125</v>
-      </c>
-      <c r="F83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2103,18 +1852,15 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>518</v>
+        <v>160</v>
       </c>
       <c r="C84" t="n">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="D84" t="n">
-        <v>219</v>
+        <v>100.6</v>
       </c>
       <c r="E84" t="n">
-        <v>100.6</v>
-      </c>
-      <c r="F84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2123,18 +1869,15 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>522</v>
+        <v>180</v>
       </c>
       <c r="C85" t="n">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="D85" t="n">
-        <v>219</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="E85" t="n">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="F85" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2143,18 +1886,15 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>525</v>
+        <v>195</v>
       </c>
       <c r="C86" t="n">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="D86" t="n">
-        <v>219</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>66.54000000000001</v>
-      </c>
-      <c r="F86" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2163,18 +1903,15 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>526</v>
+        <v>200</v>
       </c>
       <c r="C87" t="n">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="D87" t="n">
-        <v>219</v>
+        <v>63.49</v>
       </c>
       <c r="E87" t="n">
-        <v>63.49</v>
-      </c>
-      <c r="F87" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2183,18 +1920,15 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>527</v>
+        <v>205</v>
       </c>
       <c r="C88" t="n">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D88" t="n">
-        <v>219</v>
+        <v>57.7</v>
       </c>
       <c r="E88" t="n">
-        <v>57.7</v>
-      </c>
-      <c r="F88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2203,18 +1937,15 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>529</v>
+        <v>215</v>
       </c>
       <c r="C89" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D89" t="n">
-        <v>219</v>
+        <v>50.5</v>
       </c>
       <c r="E89" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="F89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2223,18 +1954,15 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>530</v>
+        <v>220</v>
       </c>
       <c r="C90" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D90" t="n">
-        <v>219</v>
+        <v>45.9</v>
       </c>
       <c r="E90" t="n">
-        <v>45.9</v>
-      </c>
-      <c r="F90" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2243,18 +1971,15 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>531</v>
+        <v>225</v>
       </c>
       <c r="C91" t="n">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D91" t="n">
-        <v>219</v>
+        <v>40.82</v>
       </c>
       <c r="E91" t="n">
-        <v>40.82</v>
-      </c>
-      <c r="F91" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2263,18 +1988,15 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>533</v>
+        <v>235</v>
       </c>
       <c r="C92" t="n">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="D92" t="n">
-        <v>219</v>
+        <v>34.76</v>
       </c>
       <c r="E92" t="n">
-        <v>34.76</v>
-      </c>
-      <c r="F92" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2283,18 +2005,15 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>545</v>
+        <v>295</v>
       </c>
       <c r="C93" t="n">
-        <v>295</v>
+        <v>219</v>
       </c>
       <c r="D93" t="n">
-        <v>219</v>
+        <v>6</v>
       </c>
       <c r="E93" t="n">
-        <v>6</v>
-      </c>
-      <c r="F93" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2303,18 +2022,15 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>550</v>
+        <v>320</v>
       </c>
       <c r="C94" t="n">
-        <v>320</v>
+        <v>219</v>
       </c>
       <c r="D94" t="n">
-        <v>219</v>
+        <v>2.55</v>
       </c>
       <c r="E94" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="F94" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2323,18 +2039,15 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>554</v>
+        <v>340</v>
       </c>
       <c r="C95" t="n">
-        <v>340</v>
+        <v>219</v>
       </c>
       <c r="D95" t="n">
-        <v>219</v>
+        <v>1.4</v>
       </c>
       <c r="E95" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="F95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2343,18 +2056,15 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="C96" t="n">
-        <v>375</v>
+        <v>219</v>
       </c>
       <c r="D96" t="n">
-        <v>219</v>
+        <v>0.58</v>
       </c>
       <c r="E96" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="F96" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2363,18 +2073,15 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>562</v>
+        <v>380</v>
       </c>
       <c r="C97" t="n">
-        <v>380</v>
+        <v>219</v>
       </c>
       <c r="D97" t="n">
-        <v>219</v>
+        <v>0.54</v>
       </c>
       <c r="E97" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="F97" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2383,18 +2090,15 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>585</v>
+        <v>185</v>
       </c>
       <c r="C98" t="n">
-        <v>185</v>
+        <v>275</v>
       </c>
       <c r="D98" t="n">
-        <v>275</v>
+        <v>76.95</v>
       </c>
       <c r="E98" t="n">
-        <v>76.95</v>
-      </c>
-      <c r="F98" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2403,18 +2107,15 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>588</v>
+        <v>200</v>
       </c>
       <c r="C99" t="n">
-        <v>200</v>
+        <v>275</v>
       </c>
       <c r="D99" t="n">
-        <v>275</v>
+        <v>63.2</v>
       </c>
       <c r="E99" t="n">
-        <v>63.2</v>
-      </c>
-      <c r="F99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2423,18 +2124,15 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>592</v>
+        <v>220</v>
       </c>
       <c r="C100" t="n">
-        <v>220</v>
+        <v>275</v>
       </c>
       <c r="D100" t="n">
-        <v>275</v>
+        <v>47.5</v>
       </c>
       <c r="E100" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="F100" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2443,18 +2141,15 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>593</v>
+        <v>225</v>
       </c>
       <c r="C101" t="n">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="D101" t="n">
-        <v>275</v>
+        <v>42.7</v>
       </c>
       <c r="E101" t="n">
-        <v>42.7</v>
-      </c>
-      <c r="F101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2463,18 +2158,15 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>595</v>
+        <v>235</v>
       </c>
       <c r="C102" t="n">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="D102" t="n">
-        <v>275</v>
+        <v>35.6</v>
       </c>
       <c r="E102" t="n">
-        <v>35.6</v>
-      </c>
-      <c r="F102" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2483,18 +2175,15 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>600</v>
+        <v>260</v>
       </c>
       <c r="C103" t="n">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D103" t="n">
-        <v>275</v>
+        <v>21.8</v>
       </c>
       <c r="E103" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="F103" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2503,18 +2192,15 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>601</v>
+        <v>265</v>
       </c>
       <c r="C104" t="n">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D104" t="n">
-        <v>275</v>
+        <v>18.9</v>
       </c>
       <c r="E104" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2523,18 +2209,15 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>602</v>
+        <v>270</v>
       </c>
       <c r="C105" t="n">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D105" t="n">
-        <v>275</v>
+        <v>16.62</v>
       </c>
       <c r="E105" t="n">
-        <v>16.62</v>
-      </c>
-      <c r="F105" t="n">
         <v>110</v>
       </c>
     </row>
@@ -2543,18 +2226,15 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>603</v>
+        <v>275</v>
       </c>
       <c r="C106" t="n">
         <v>275</v>
       </c>
       <c r="D106" t="n">
-        <v>275</v>
+        <v>14</v>
       </c>
       <c r="E106" t="n">
-        <v>14</v>
-      </c>
-      <c r="F106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2563,18 +2243,15 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>604</v>
+        <v>280</v>
       </c>
       <c r="C107" t="n">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D107" t="n">
-        <v>275</v>
+        <v>12.75</v>
       </c>
       <c r="E107" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="F107" t="n">
         <v>14</v>
       </c>
     </row>
@@ -2583,18 +2260,15 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>606</v>
+        <v>290</v>
       </c>
       <c r="C108" t="n">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D108" t="n">
-        <v>275</v>
+        <v>9.65</v>
       </c>
       <c r="E108" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="F108" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2603,18 +2277,15 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>610</v>
+        <v>310</v>
       </c>
       <c r="C109" t="n">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="D109" t="n">
-        <v>275</v>
+        <v>5.45</v>
       </c>
       <c r="E109" t="n">
-        <v>5.45</v>
-      </c>
-      <c r="F109" t="n">
         <v>115</v>
       </c>
     </row>
@@ -2623,18 +2294,15 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>616</v>
+        <v>340</v>
       </c>
       <c r="C110" t="n">
-        <v>340</v>
+        <v>275</v>
       </c>
       <c r="D110" t="n">
-        <v>275</v>
+        <v>2.31</v>
       </c>
       <c r="E110" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="F110" t="n">
         <v>110</v>
       </c>
     </row>
@@ -2643,18 +2311,15 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>621</v>
+        <v>365</v>
       </c>
       <c r="C111" t="n">
-        <v>365</v>
+        <v>275</v>
       </c>
       <c r="D111" t="n">
-        <v>275</v>
+        <v>1.23</v>
       </c>
       <c r="E111" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="F111" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2663,18 +2328,15 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>630</v>
+        <v>100</v>
       </c>
       <c r="C112" t="n">
-        <v>100</v>
+        <v>366</v>
       </c>
       <c r="D112" t="n">
-        <v>366</v>
+        <v>158.8</v>
       </c>
       <c r="E112" t="n">
-        <v>158.8</v>
-      </c>
-      <c r="F112" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2683,18 +2345,15 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>641</v>
+        <v>155</v>
       </c>
       <c r="C113" t="n">
-        <v>155</v>
+        <v>366</v>
       </c>
       <c r="D113" t="n">
-        <v>366</v>
+        <v>106.12</v>
       </c>
       <c r="E113" t="n">
-        <v>106.12</v>
-      </c>
-      <c r="F113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2703,18 +2362,15 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>646</v>
+        <v>180</v>
       </c>
       <c r="C114" t="n">
-        <v>180</v>
+        <v>366</v>
       </c>
       <c r="D114" t="n">
-        <v>366</v>
+        <v>82.95</v>
       </c>
       <c r="E114" t="n">
-        <v>82.95</v>
-      </c>
-      <c r="F114" t="n">
         <v>26</v>
       </c>
     </row>
@@ -2723,18 +2379,15 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>650</v>
+        <v>200</v>
       </c>
       <c r="C115" t="n">
-        <v>200</v>
+        <v>366</v>
       </c>
       <c r="D115" t="n">
-        <v>366</v>
+        <v>64.73999999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>64.73999999999999</v>
-      </c>
-      <c r="F115" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2743,18 +2396,15 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>651</v>
+        <v>205</v>
       </c>
       <c r="C116" t="n">
-        <v>205</v>
+        <v>366</v>
       </c>
       <c r="D116" t="n">
-        <v>366</v>
+        <v>62.05</v>
       </c>
       <c r="E116" t="n">
-        <v>62.05</v>
-      </c>
-      <c r="F116" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2763,18 +2413,15 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>656</v>
+        <v>230</v>
       </c>
       <c r="C117" t="n">
-        <v>230</v>
+        <v>366</v>
       </c>
       <c r="D117" t="n">
-        <v>366</v>
+        <v>42.76</v>
       </c>
       <c r="E117" t="n">
-        <v>42.76</v>
-      </c>
-      <c r="F117" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2783,18 +2430,15 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>658</v>
+        <v>240</v>
       </c>
       <c r="C118" t="n">
-        <v>240</v>
+        <v>366</v>
       </c>
       <c r="D118" t="n">
-        <v>366</v>
+        <v>36.8</v>
       </c>
       <c r="E118" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="F118" t="n">
         <v>23</v>
       </c>
     </row>
@@ -2803,18 +2447,15 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>665</v>
+        <v>275</v>
       </c>
       <c r="C119" t="n">
-        <v>275</v>
+        <v>366</v>
       </c>
       <c r="D119" t="n">
-        <v>366</v>
+        <v>18.7</v>
       </c>
       <c r="E119" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="F119" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2823,18 +2464,15 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>668</v>
+        <v>290</v>
       </c>
       <c r="C120" t="n">
-        <v>290</v>
+        <v>366</v>
       </c>
       <c r="D120" t="n">
-        <v>366</v>
+        <v>13.65</v>
       </c>
       <c r="E120" t="n">
-        <v>13.65</v>
-      </c>
-      <c r="F120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2843,18 +2481,15 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>671</v>
+        <v>305</v>
       </c>
       <c r="C121" t="n">
-        <v>305</v>
+        <v>366</v>
       </c>
       <c r="D121" t="n">
-        <v>366</v>
+        <v>9.1</v>
       </c>
       <c r="E121" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="F121" t="n">
         <v>20</v>
       </c>
     </row>
@@ -2863,18 +2498,15 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>672</v>
+        <v>310</v>
       </c>
       <c r="C122" t="n">
-        <v>310</v>
+        <v>366</v>
       </c>
       <c r="D122" t="n">
-        <v>366</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="F122" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2883,18 +2515,15 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>673</v>
+        <v>315</v>
       </c>
       <c r="C123" t="n">
-        <v>315</v>
+        <v>366</v>
       </c>
       <c r="D123" t="n">
-        <v>366</v>
+        <v>7.4</v>
       </c>
       <c r="E123" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="F123" t="n">
         <v>52</v>
       </c>
     </row>
@@ -2903,18 +2532,15 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>675</v>
+        <v>325</v>
       </c>
       <c r="C124" t="n">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="D124" t="n">
-        <v>366</v>
+        <v>5.9</v>
       </c>
       <c r="E124" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F124" t="n">
         <v>29</v>
       </c>
     </row>
@@ -2923,18 +2549,15 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>676</v>
+        <v>330</v>
       </c>
       <c r="C125" t="n">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="D125" t="n">
-        <v>366</v>
+        <v>5.1</v>
       </c>
       <c r="E125" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="F125" t="n">
         <v>55</v>
       </c>
     </row>
@@ -2943,18 +2566,15 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>680</v>
+        <v>350</v>
       </c>
       <c r="C126" t="n">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="D126" t="n">
-        <v>366</v>
+        <v>3.35</v>
       </c>
       <c r="E126" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="F126" t="n">
         <v>71</v>
       </c>
     </row>
@@ -2963,18 +2583,15 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>681</v>
+        <v>355</v>
       </c>
       <c r="C127" t="n">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="D127" t="n">
-        <v>366</v>
+        <v>2.97</v>
       </c>
       <c r="E127" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="F127" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2983,18 +2600,15 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>682</v>
+        <v>360</v>
       </c>
       <c r="C128" t="n">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D128" t="n">
-        <v>366</v>
+        <v>2.69</v>
       </c>
       <c r="E128" t="n">
-        <v>2.69</v>
-      </c>
-      <c r="F128" t="n">
         <v>20</v>
       </c>
     </row>
@@ -3003,18 +2617,15 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>704</v>
+        <v>160</v>
       </c>
       <c r="C129" t="n">
-        <v>160</v>
+        <v>457</v>
       </c>
       <c r="D129" t="n">
-        <v>457</v>
+        <v>101.18</v>
       </c>
       <c r="E129" t="n">
-        <v>101.18</v>
-      </c>
-      <c r="F129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3023,18 +2634,15 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>706</v>
+        <v>170</v>
       </c>
       <c r="C130" t="n">
-        <v>170</v>
+        <v>457</v>
       </c>
       <c r="D130" t="n">
-        <v>457</v>
+        <v>92.31999999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>92.31999999999999</v>
-      </c>
-      <c r="F130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3043,18 +2651,15 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>709</v>
+        <v>185</v>
       </c>
       <c r="C131" t="n">
-        <v>185</v>
+        <v>457</v>
       </c>
       <c r="D131" t="n">
-        <v>457</v>
+        <v>79.34999999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>79.34999999999999</v>
-      </c>
-      <c r="F131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3063,18 +2668,15 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>711</v>
+        <v>195</v>
       </c>
       <c r="C132" t="n">
-        <v>195</v>
+        <v>457</v>
       </c>
       <c r="D132" t="n">
-        <v>457</v>
+        <v>70.7</v>
       </c>
       <c r="E132" t="n">
-        <v>70.7</v>
-      </c>
-      <c r="F132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3083,18 +2685,15 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>717</v>
+        <v>225</v>
       </c>
       <c r="C133" t="n">
-        <v>225</v>
+        <v>457</v>
       </c>
       <c r="D133" t="n">
-        <v>457</v>
+        <v>49.65</v>
       </c>
       <c r="E133" t="n">
-        <v>49.65</v>
-      </c>
-      <c r="F133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3103,18 +2702,15 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>718</v>
+        <v>230</v>
       </c>
       <c r="C134" t="n">
-        <v>230</v>
+        <v>457</v>
       </c>
       <c r="D134" t="n">
-        <v>457</v>
+        <v>44.9</v>
       </c>
       <c r="E134" t="n">
-        <v>44.9</v>
-      </c>
-      <c r="F134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3123,18 +2719,15 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>719</v>
+        <v>235</v>
       </c>
       <c r="C135" t="n">
-        <v>235</v>
+        <v>457</v>
       </c>
       <c r="D135" t="n">
-        <v>457</v>
+        <v>41.75</v>
       </c>
       <c r="E135" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="F135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +2736,15 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>720</v>
+        <v>240</v>
       </c>
       <c r="C136" t="n">
-        <v>240</v>
+        <v>457</v>
       </c>
       <c r="D136" t="n">
-        <v>457</v>
+        <v>40</v>
       </c>
       <c r="E136" t="n">
-        <v>40</v>
-      </c>
-      <c r="F136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3163,18 +2753,15 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>722</v>
+        <v>250</v>
       </c>
       <c r="C137" t="n">
-        <v>250</v>
+        <v>457</v>
       </c>
       <c r="D137" t="n">
-        <v>457</v>
+        <v>33.15</v>
       </c>
       <c r="E137" t="n">
-        <v>33.15</v>
-      </c>
-      <c r="F137" t="n">
         <v>27</v>
       </c>
     </row>
@@ -3183,18 +2770,15 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>723</v>
+        <v>255</v>
       </c>
       <c r="C138" t="n">
-        <v>255</v>
+        <v>457</v>
       </c>
       <c r="D138" t="n">
-        <v>457</v>
+        <v>31.69</v>
       </c>
       <c r="E138" t="n">
-        <v>31.69</v>
-      </c>
-      <c r="F138" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3203,18 +2787,15 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>724</v>
+        <v>260</v>
       </c>
       <c r="C139" t="n">
-        <v>260</v>
+        <v>457</v>
       </c>
       <c r="D139" t="n">
-        <v>457</v>
+        <v>29.25</v>
       </c>
       <c r="E139" t="n">
-        <v>29.25</v>
-      </c>
-      <c r="F139" t="n">
         <v>32</v>
       </c>
     </row>
@@ -3223,18 +2804,15 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>729</v>
+        <v>285</v>
       </c>
       <c r="C140" t="n">
-        <v>285</v>
+        <v>457</v>
       </c>
       <c r="D140" t="n">
-        <v>457</v>
+        <v>18.2</v>
       </c>
       <c r="E140" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="F140" t="n">
         <v>31</v>
       </c>
     </row>
@@ -3243,18 +2821,15 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>730</v>
+        <v>290</v>
       </c>
       <c r="C141" t="n">
-        <v>290</v>
+        <v>457</v>
       </c>
       <c r="D141" t="n">
-        <v>457</v>
+        <v>16.6</v>
       </c>
       <c r="E141" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="F141" t="n">
         <v>67</v>
       </c>
     </row>
@@ -3263,18 +2838,15 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>733</v>
+        <v>305</v>
       </c>
       <c r="C142" t="n">
-        <v>305</v>
+        <v>457</v>
       </c>
       <c r="D142" t="n">
-        <v>457</v>
+        <v>12.11</v>
       </c>
       <c r="E142" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="F142" t="n">
         <v>26</v>
       </c>
     </row>
@@ -3283,18 +2855,15 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>736</v>
+        <v>320</v>
       </c>
       <c r="C143" t="n">
-        <v>320</v>
+        <v>457</v>
       </c>
       <c r="D143" t="n">
-        <v>457</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E143" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="F143" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3303,18 +2872,15 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>740</v>
+        <v>340</v>
       </c>
       <c r="C144" t="n">
-        <v>340</v>
+        <v>457</v>
       </c>
       <c r="D144" t="n">
-        <v>457</v>
+        <v>5.9</v>
       </c>
       <c r="E144" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="F144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3323,18 +2889,15 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>749</v>
+        <v>390</v>
       </c>
       <c r="C145" t="n">
-        <v>390</v>
+        <v>457</v>
       </c>
       <c r="D145" t="n">
-        <v>457</v>
+        <v>2.9</v>
       </c>
       <c r="E145" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="F145" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3343,18 +2906,15 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>750</v>
+        <v>105</v>
       </c>
       <c r="C146" t="n">
-        <v>105</v>
+        <v>583</v>
       </c>
       <c r="D146" t="n">
-        <v>583</v>
+        <v>154.01</v>
       </c>
       <c r="E146" t="n">
-        <v>154.01</v>
-      </c>
-      <c r="F146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3363,18 +2923,15 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>759</v>
+        <v>150</v>
       </c>
       <c r="C147" t="n">
-        <v>150</v>
+        <v>583</v>
       </c>
       <c r="D147" t="n">
-        <v>583</v>
+        <v>112.26</v>
       </c>
       <c r="E147" t="n">
-        <v>112.26</v>
-      </c>
-      <c r="F147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3383,18 +2940,15 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>761</v>
+        <v>160</v>
       </c>
       <c r="C148" t="n">
-        <v>160</v>
+        <v>583</v>
       </c>
       <c r="D148" t="n">
-        <v>583</v>
+        <v>102.08</v>
       </c>
       <c r="E148" t="n">
-        <v>102.08</v>
-      </c>
-      <c r="F148" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3403,18 +2957,15 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>772</v>
+        <v>215</v>
       </c>
       <c r="C149" t="n">
-        <v>215</v>
+        <v>583</v>
       </c>
       <c r="D149" t="n">
-        <v>583</v>
+        <v>59.24</v>
       </c>
       <c r="E149" t="n">
-        <v>59.24</v>
-      </c>
-      <c r="F149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +2974,15 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>774</v>
+        <v>225</v>
       </c>
       <c r="C150" t="n">
-        <v>225</v>
+        <v>583</v>
       </c>
       <c r="D150" t="n">
-        <v>583</v>
+        <v>52.52</v>
       </c>
       <c r="E150" t="n">
-        <v>52.52</v>
-      </c>
-      <c r="F150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3443,18 +2991,15 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>777</v>
+        <v>240</v>
       </c>
       <c r="C151" t="n">
-        <v>240</v>
+        <v>583</v>
       </c>
       <c r="D151" t="n">
-        <v>583</v>
+        <v>43.5</v>
       </c>
       <c r="E151" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="F151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3463,18 +3008,15 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>778</v>
+        <v>245</v>
       </c>
       <c r="C152" t="n">
-        <v>245</v>
+        <v>583</v>
       </c>
       <c r="D152" t="n">
-        <v>583</v>
+        <v>40.11</v>
       </c>
       <c r="E152" t="n">
-        <v>40.11</v>
-      </c>
-      <c r="F152" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3483,18 +3025,15 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>782</v>
+        <v>265</v>
       </c>
       <c r="C153" t="n">
-        <v>265</v>
+        <v>583</v>
       </c>
       <c r="D153" t="n">
-        <v>583</v>
+        <v>30.4</v>
       </c>
       <c r="E153" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="F153" t="n">
         <v>11</v>
       </c>
     </row>
@@ -3503,18 +3042,15 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>783</v>
+        <v>270</v>
       </c>
       <c r="C154" t="n">
-        <v>270</v>
+        <v>583</v>
       </c>
       <c r="D154" t="n">
-        <v>583</v>
+        <v>27.55</v>
       </c>
       <c r="E154" t="n">
-        <v>27.55</v>
-      </c>
-      <c r="F154" t="n">
         <v>18</v>
       </c>
     </row>
@@ -3523,18 +3059,15 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>784</v>
+        <v>275</v>
       </c>
       <c r="C155" t="n">
-        <v>275</v>
+        <v>583</v>
       </c>
       <c r="D155" t="n">
-        <v>583</v>
+        <v>25.89</v>
       </c>
       <c r="E155" t="n">
-        <v>25.89</v>
-      </c>
-      <c r="F155" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3543,18 +3076,15 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>786</v>
+        <v>285</v>
       </c>
       <c r="C156" t="n">
-        <v>285</v>
+        <v>583</v>
       </c>
       <c r="D156" t="n">
-        <v>583</v>
+        <v>22.73</v>
       </c>
       <c r="E156" t="n">
-        <v>22.73</v>
-      </c>
-      <c r="F156" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3563,18 +3093,15 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>791</v>
+        <v>310</v>
       </c>
       <c r="C157" t="n">
-        <v>310</v>
+        <v>583</v>
       </c>
       <c r="D157" t="n">
-        <v>583</v>
+        <v>15.06</v>
       </c>
       <c r="E157" t="n">
-        <v>15.06</v>
-      </c>
-      <c r="F157" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3583,18 +3110,15 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>792</v>
+        <v>315</v>
       </c>
       <c r="C158" t="n">
-        <v>315</v>
+        <v>583</v>
       </c>
       <c r="D158" t="n">
-        <v>583</v>
+        <v>13.25</v>
       </c>
       <c r="E158" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="F158" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3603,18 +3127,15 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>799</v>
+        <v>350</v>
       </c>
       <c r="C159" t="n">
-        <v>350</v>
+        <v>583</v>
       </c>
       <c r="D159" t="n">
-        <v>583</v>
+        <v>7.55</v>
       </c>
       <c r="E159" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="F159" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3623,18 +3144,15 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>806</v>
+        <v>390</v>
       </c>
       <c r="C160" t="n">
-        <v>390</v>
+        <v>583</v>
       </c>
       <c r="D160" t="n">
-        <v>583</v>
+        <v>4</v>
       </c>
       <c r="E160" t="n">
-        <v>4</v>
-      </c>
-      <c r="F160" t="n">
         <v>11</v>
       </c>
     </row>
@@ -3643,18 +3161,15 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>825</v>
+        <v>200</v>
       </c>
       <c r="C161" t="n">
-        <v>200</v>
+        <v>639</v>
       </c>
       <c r="D161" t="n">
-        <v>639</v>
+        <v>70</v>
       </c>
       <c r="E161" t="n">
-        <v>70</v>
-      </c>
-      <c r="F161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3663,18 +3178,15 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>832</v>
+        <v>235</v>
       </c>
       <c r="C162" t="n">
-        <v>235</v>
+        <v>639</v>
       </c>
       <c r="D162" t="n">
-        <v>639</v>
+        <v>47.02</v>
       </c>
       <c r="E162" t="n">
-        <v>47.02</v>
-      </c>
-      <c r="F162" t="n">
         <v>14</v>
       </c>
     </row>
@@ -3683,18 +3195,15 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>834</v>
+        <v>245</v>
       </c>
       <c r="C163" t="n">
-        <v>245</v>
+        <v>639</v>
       </c>
       <c r="D163" t="n">
-        <v>639</v>
+        <v>41.23</v>
       </c>
       <c r="E163" t="n">
-        <v>41.23</v>
-      </c>
-      <c r="F163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3212,15 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>840</v>
+        <v>275</v>
       </c>
       <c r="C164" t="n">
-        <v>275</v>
+        <v>639</v>
       </c>
       <c r="D164" t="n">
-        <v>639</v>
+        <v>27.34</v>
       </c>
       <c r="E164" t="n">
-        <v>27.34</v>
-      </c>
-      <c r="F164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3723,18 +3229,15 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>846</v>
+        <v>305</v>
       </c>
       <c r="C165" t="n">
-        <v>305</v>
+        <v>639</v>
       </c>
       <c r="D165" t="n">
-        <v>639</v>
+        <v>17</v>
       </c>
       <c r="E165" t="n">
-        <v>17</v>
-      </c>
-      <c r="F165" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3743,18 +3246,15 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>852</v>
+        <v>335</v>
       </c>
       <c r="C166" t="n">
-        <v>335</v>
+        <v>639</v>
       </c>
       <c r="D166" t="n">
-        <v>639</v>
+        <v>10.83</v>
       </c>
       <c r="E166" t="n">
-        <v>10.83</v>
-      </c>
-      <c r="F166" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3763,18 +3263,15 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>861</v>
+        <v>380</v>
       </c>
       <c r="C167" t="n">
-        <v>380</v>
+        <v>639</v>
       </c>
       <c r="D167" t="n">
-        <v>639</v>
+        <v>6.21</v>
       </c>
       <c r="E167" t="n">
-        <v>6.21</v>
-      </c>
-      <c r="F167" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3783,18 +3280,15 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>870</v>
+        <v>150</v>
       </c>
       <c r="C168" t="n">
-        <v>150</v>
+        <v>730</v>
       </c>
       <c r="D168" t="n">
-        <v>730</v>
+        <v>112.9</v>
       </c>
       <c r="E168" t="n">
-        <v>112.9</v>
-      </c>
-      <c r="F168" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3803,18 +3297,15 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>880</v>
+        <v>200</v>
       </c>
       <c r="C169" t="n">
-        <v>200</v>
+        <v>730</v>
       </c>
       <c r="D169" t="n">
-        <v>730</v>
+        <v>72.75</v>
       </c>
       <c r="E169" t="n">
-        <v>72.75</v>
-      </c>
-      <c r="F169" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3823,18 +3314,15 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>883</v>
+        <v>215</v>
       </c>
       <c r="C170" t="n">
-        <v>215</v>
+        <v>730</v>
       </c>
       <c r="D170" t="n">
-        <v>730</v>
+        <v>62.65</v>
       </c>
       <c r="E170" t="n">
-        <v>62.65</v>
-      </c>
-      <c r="F170" t="n">
         <v>77</v>
       </c>
     </row>
@@ -3843,18 +3331,15 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>885</v>
+        <v>225</v>
       </c>
       <c r="C171" t="n">
-        <v>225</v>
+        <v>730</v>
       </c>
       <c r="D171" t="n">
-        <v>730</v>
+        <v>56.4</v>
       </c>
       <c r="E171" t="n">
-        <v>56.4</v>
-      </c>
-      <c r="F171" t="n">
         <v>6</v>
       </c>
     </row>
@@ -3863,18 +3348,15 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>887</v>
+        <v>235</v>
       </c>
       <c r="C172" t="n">
-        <v>235</v>
+        <v>730</v>
       </c>
       <c r="D172" t="n">
-        <v>730</v>
+        <v>49.5</v>
       </c>
       <c r="E172" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="F172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3883,18 +3365,15 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>891</v>
+        <v>255</v>
       </c>
       <c r="C173" t="n">
-        <v>255</v>
+        <v>730</v>
       </c>
       <c r="D173" t="n">
-        <v>730</v>
+        <v>40.3</v>
       </c>
       <c r="E173" t="n">
-        <v>40.3</v>
-      </c>
-      <c r="F173" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3903,18 +3382,15 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>892</v>
+        <v>260</v>
       </c>
       <c r="C174" t="n">
-        <v>260</v>
+        <v>730</v>
       </c>
       <c r="D174" t="n">
-        <v>730</v>
+        <v>37.5</v>
       </c>
       <c r="E174" t="n">
-        <v>37.5</v>
-      </c>
-      <c r="F174" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3923,18 +3399,15 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>893</v>
+        <v>265</v>
       </c>
       <c r="C175" t="n">
-        <v>265</v>
+        <v>730</v>
       </c>
       <c r="D175" t="n">
-        <v>730</v>
+        <v>35.19</v>
       </c>
       <c r="E175" t="n">
-        <v>35.19</v>
-      </c>
-      <c r="F175" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3943,18 +3416,15 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>894</v>
+        <v>270</v>
       </c>
       <c r="C176" t="n">
-        <v>270</v>
+        <v>730</v>
       </c>
       <c r="D176" t="n">
-        <v>730</v>
+        <v>32.03</v>
       </c>
       <c r="E176" t="n">
-        <v>32.03</v>
-      </c>
-      <c r="F176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3963,18 +3433,15 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>902</v>
+        <v>310</v>
       </c>
       <c r="C177" t="n">
-        <v>310</v>
+        <v>730</v>
       </c>
       <c r="D177" t="n">
-        <v>730</v>
+        <v>18.5</v>
       </c>
       <c r="E177" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="F177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +3450,15 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>910</v>
+        <v>350</v>
       </c>
       <c r="C178" t="n">
-        <v>350</v>
+        <v>730</v>
       </c>
       <c r="D178" t="n">
-        <v>730</v>
+        <v>10.5</v>
       </c>
       <c r="E178" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="F178" t="n">
         <v>21</v>
       </c>
     </row>
@@ -4003,18 +3467,15 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>912</v>
+        <v>360</v>
       </c>
       <c r="C179" t="n">
-        <v>360</v>
+        <v>730</v>
       </c>
       <c r="D179" t="n">
-        <v>730</v>
+        <v>9</v>
       </c>
       <c r="E179" t="n">
-        <v>9</v>
-      </c>
-      <c r="F179" t="n">
         <v>10</v>
       </c>
     </row>
@@ -4023,18 +3484,15 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>915</v>
+        <v>375</v>
       </c>
       <c r="C180" t="n">
-        <v>375</v>
+        <v>730</v>
       </c>
       <c r="D180" t="n">
-        <v>730</v>
+        <v>7.55</v>
       </c>
       <c r="E180" t="n">
-        <v>7.55</v>
-      </c>
-      <c r="F180" t="n">
         <v>1</v>
       </c>
     </row>
